--- a/src/test/resources/Documents/25904/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/25904/Actual/JobPlanning.xlsx
@@ -65,28 +65,28 @@
     <t>Kit</t>
   </si>
   <si>
+    <t>- Anderson</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Farmout 2</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>- P-Dinh</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Farmout 1</t>
   </si>
   <si>
     <t>124</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
-    <t>- Anderson</t>
-  </si>
-  <si>
-    <t>Farmout 2</t>
-  </si>
-  <si>
-    <t>103</t>
   </si>
   <si>
     <t>Liner  2p</t>
@@ -1059,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s" s="57">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1083,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s" s="66">
         <v>36</v>

--- a/src/test/resources/Documents/25904/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/25904/Actual/JobPlanning.xlsx
@@ -65,28 +65,28 @@
     <t>Kit</t>
   </si>
   <si>
+    <t>- P-Dinh</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Farmout 1</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>- Anderson</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Farmout 2</t>
   </si>
   <si>
     <t>103</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
-  </si>
-  <si>
-    <t>- P-Dinh</t>
-  </si>
-  <si>
-    <t>Farmout 1</t>
-  </si>
-  <si>
-    <t>124</t>
   </si>
   <si>
     <t>Liner  2p</t>
@@ -105,17 +105,32 @@
     <t>Outer wrap  2p</t>
   </si>
   <si>
-    <t>Print F 2x0</t>
+    <t>Print F (Varnish 1x0)</t>
   </si>
   <si>
     <t>8CS 40" (#9)</t>
   </si>
   <si>
-    <t>182</t>
+    <t>20</t>
   </si>
   <si>
     <t>8CS 40" (#9)
 8CP 40" (#9)</t>
+  </si>
+  <si>
+    <t>Post-Press Cut</t>
+  </si>
+  <si>
+    <t>Final Trim</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Print F 2x0</t>
+  </si>
+  <si>
+    <t>182</t>
   </si>
   <si>
     <t>Laminate</t>
@@ -127,21 +142,6 @@
     <t>Farmout 1
 Farmout 2
 Farmout 3</t>
-  </si>
-  <si>
-    <t>Print F (Varnish 1x0)</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Post-Press Cut</t>
-  </si>
-  <si>
-    <t>Final Trim</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>Plate - Outer wrap  2p</t>
@@ -1059,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s" s="57">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1068,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s" s="60">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s" s="61">
         <v>18</v>
@@ -1083,10 +1083,10 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1141,16 +1141,16 @@
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="84">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="85">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s" s="86">
         <v>40</v>
-      </c>
-      <c r="E8" t="s" s="84">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="85">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s" s="86">
-        <v>41</v>
       </c>
       <c r="H8" t="s" s="87">
         <v>18</v>
@@ -1165,10 +1165,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
